--- a/Översikt KINDA.xlsx
+++ b/Översikt KINDA.xlsx
@@ -575,7 +575,7 @@
         <v>45923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44826</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>45875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45965.57905092592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>45474</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45901.62403935185</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>45839.63804398148</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>44939</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>45880</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>45154.71289351852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>44958</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>45813.49403935186</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45901.62307870371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>45957.58760416666</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>45659.24403935186</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45726.67396990741</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44743.39091435185</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>45208</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>45693.56063657408</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45960.61328703703</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>45235</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>46037.49528935185</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45698.67474537037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>45875</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>45196</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>45301</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>45784.71938657408</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>44754</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44690</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>45517</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45196.57292824074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>45049</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>44342</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>45317</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44636</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45834.58208333333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44258</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>45719.48104166667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>45769.37408564815</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45841.6012962963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>44642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>45294</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45796.54400462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>45630.41168981481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>45861</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>45957.58908564815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>45875</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>45965.57670138889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45954.71739583334</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>45484</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>45490.56811342593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>45982.6</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>44608.4999537037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>44914.64768518518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>46002.5483912037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44949</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>45680.41096064815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>44452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44435</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44525</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>45484</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>44886</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>44419</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>44239</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>44805</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>44463</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>44418</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>44383.42700231481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44419</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44361.87231481481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>44817.99954861111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>44249</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>44382</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44852.60928240741</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>44776</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>44687</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>44309</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>44439</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         <v>44873</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7524,7 +7524,7 @@
         <v>44322</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44484</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44308</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44743.54180555556</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44411</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44284</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44483.77188657408</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44568.4189699074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44392</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44416</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44587</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44729</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44433</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44799.57587962963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44516.65936342593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44782</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44739.56701388889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44497</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44326</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44587</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>44244</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44362</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44465</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44337</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44337</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44467.60280092592</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44466.67244212963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44466.67746527777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44313.64008101852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44517.59907407407</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44454.66991898148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>44316</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>44739.55577546296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>44242</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>44734.56722222222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>44852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>44861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>44616.80707175926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>44445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>44484</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>44796.31537037037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>44466.67340277778</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>44466.67462962963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>44419</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44836.74738425926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         <v>44839.62386574074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>44364.44892361111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>44733.01248842593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>44874</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44714.53115740741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44451.97046296296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44483</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44379</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>44357</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10830,7 +10830,7 @@
         <v>44486</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         <v>44560</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         <v>44721.6180787037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44873.32138888889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>44697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>44805.56214120371</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44704.65763888889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44603.75377314815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44720</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44789.39914351852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>45400.7590162037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>45078.52990740741</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>45530.38082175926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>45445.39447916667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>45369.62628472222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44314</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>45174</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45351</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44998</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44826</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44897.60309027778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44755.45060185185</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>45162</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>45078</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>45145.63927083334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>45030</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>45030</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45030</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44455.68322916667</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44379</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44967</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>45684.55570601852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44918.3396875</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44918.34784722222</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44918</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>45355.45898148148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>45184.40974537037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44442.55604166666</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44284.57011574074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>45583.44207175926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>45188.64319444444</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44839.58741898148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>45266.61387731481</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44882</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45383</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45475.62894675926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>45020.61570601852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44801</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45141</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44375</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>45148.70342592592</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44930.64962962963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>45665.45471064815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>45351.40523148148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>45098</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>45315.66689814815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45684.57195601852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>45635.68952546296</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45187</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44454.66972222222</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45078.5274537037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45533.54908564815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45219</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>45581.57662037037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>45551.28467592593</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>45544.6372337963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>45201.40716435185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44851</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>44320.65725694445</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>45798.33460648148</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>45798.33824074074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>45187.61545138889</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>45567.47780092592</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44309</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>45799</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>45799.36881944445</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45149.57319444444</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>44918.32740740741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>44918.33414351852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>44918</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>45660.71824074074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>44918.34216435185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>45708.62505787037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>45456.61288194444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>45145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>45049</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>44958.38997685185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>45259.31565972222</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>45456.44684027778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>45807.66878472222</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>45832.6390625</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>45889.35399305556</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>45785.24804398148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>44567.77518518519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>45888.49229166667</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>45888</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>45888</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>45888</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>45811</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>45813.52677083333</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>45813.50763888889</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>45813.53402777778</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>45731.65049768519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>45817.55887731481</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>44935</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>45817.55668981482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>44732</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44677</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>45897.54273148148</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>45897.54880787037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>45897.54641203704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>45818</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>45897.55340277778</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>45818</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>45819.53686342593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>45819.55849537037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>45819.60376157407</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>45560.2703125</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>45898.30667824074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17993,7 +17993,7 @@
         <v>45819.4475</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>45901.32078703704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45358.44520833333</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>45819.4893287037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>45597.37384259259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>45821</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>45821</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>45821</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>45757.48918981481</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>45369.67408564815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>45904</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44483.65453703704</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>45062.57160879629</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>45360.41204861111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>45758.36638888889</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>45824</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>45905.33846064815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>45904</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>45904</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45601.35335648148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>45909.47525462963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>45821</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>45823.95393518519</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>45823.95060185185</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>45909.48123842593</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>45517.44506944445</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>45909.43236111111</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44799</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44799.57753472222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>45909.42916666667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>45909.45248842592</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>45821</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>45629</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>45912.47875</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>45468.49909722222</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44502</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>45245.66636574074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>45007</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>45758.36788194445</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>45746.48921296297</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>45831.46635416667</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>45831.47709490741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>45917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>45020.71773148148</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>45334.82431712963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>45267.6274537037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>45321.70762731481</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>45923.3625</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44981</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>45167</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>45383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>45832.56275462963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44949.73369212963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>45229</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44627</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45832.55696759259</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44725.33693287037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>45671.62322916667</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>45929.43230324074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>45929.41962962963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>45929.42545138889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>45834.56487268519</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>45929.43957175926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45929</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>45929.39244212963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>45187</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45461.42116898148</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45929.46361111111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45352</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45821.4841087963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45835.36383101852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45442.48741898148</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45929.45878472222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45835.35780092593</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45302.51340277777</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44960.64481481481</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45838.72785879629</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45769.37105324074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>45601.35923611111</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>45839.50966435186</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>45839.51413194444</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>45933.46984953704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
         <v>45932.59002314815</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>45932.59138888889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>45932.55936342593</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>45245.67082175926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45933.47111111111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>45840.85745370371</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>45841.4630787037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23116,7 +23116,7 @@
         <v>44799.59876157407</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>45841.50858796296</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>45935</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>45107.42807870371</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45145</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44319</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44860</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45676</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45676.49690972222</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45841.49861111111</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45845</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45008</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45624.33611111111</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45845.52050925926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45184.43140046296</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23976,7 +23976,7 @@
         <v>45940.46385416666</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24033,7 +24033,7 @@
         <v>45943.61493055556</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24090,7 +24090,7 @@
         <v>44882</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24147,7 +24147,7 @@
         <v>45390.53634259259</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45250</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45385.56655092593</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45671.62127314815</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45842.35203703704</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45733.66236111111</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45331</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>45825.6502662037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>45945.63074074074</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>45527.33670138889</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>45527.3469212963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>45567.48658564815</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45590.59793981481</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45929</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45946.3800462963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45461.41216435185</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44728.60424768519</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45035</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44623.61737268518</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45863.43395833333</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45863.51805555556</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45863.44907407407</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45863</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>44484</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45784.70443287037</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>45786</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>45866</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>45866</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>45957.4008912037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45562.3316087963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45456</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>45334</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>44480.3503587963</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>45874</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>44991.5281712963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         <v>44617.6878125</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>45875</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>45361.37284722222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>44650.56546296296</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>45593.66861111111</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>45959.58710648148</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>45267.61618055555</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>45960.86200231482</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>45965.45344907408</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44977</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>45880</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>45111</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>45882.57047453704</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45062.57262731482</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26960,7 +26960,7 @@
         <v>45796.54888888889</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>45966.87212962963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         <v>45967.60479166666</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45971.60863425926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>45096</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>45882.58010416666</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27312,7 +27312,7 @@
         <v>45971.62304398148</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>45882.56710648148</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27431,7 +27431,7 @@
         <v>45971.60042824074</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>44272</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>45118.57342592593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27607,7 +27607,7 @@
         <v>45883.3749537037</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27664,7 +27664,7 @@
         <v>45973</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27721,7 +27721,7 @@
         <v>45572.6625</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27778,7 +27778,7 @@
         <v>45484</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27835,7 +27835,7 @@
         <v>45882.56501157407</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27892,7 +27892,7 @@
         <v>45882.55935185185</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27949,7 +27949,7 @@
         <v>45882.56136574074</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>45973</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>45973</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>45883.38797453704</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28177,7 +28177,7 @@
         <v>45883.39684027778</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>44918.33840277778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45245.47634259259</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45972</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28405,7 +28405,7 @@
         <v>45699.45700231481</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>44952</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45315.66914351852</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45977.81061342593</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45978</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45631.62002314815</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45541.34607638889</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45688.43620370371</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28871,7 +28871,7 @@
         <v>45693.39354166666</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>45160.3425</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>45593.32488425926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         <v>44739.5850462963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>45078.51806712963</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>44959.3233912037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45118.58756944445</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>46029.57982638889</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>44952</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>44608.48450231482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29451,7 +29451,7 @@
         <v>45988.45670138889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29513,7 +29513,7 @@
         <v>45988.36878472222</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>45988.46053240741</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         <v>45684.49472222223</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         <v>45988.43372685185</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29756,7 +29756,7 @@
         <v>45988.43559027778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44952.00760416667</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>45988.45870370371</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29937,7 +29937,7 @@
         <v>44483.65719907408</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29994,7 +29994,7 @@
         <v>45613.8235300926</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30051,7 +30051,7 @@
         <v>46035.35317129629</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>46034.30648148148</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30165,7 +30165,7 @@
         <v>44319</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30222,7 +30222,7 @@
         <v>45176.39657407408</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30279,7 +30279,7 @@
         <v>45118.5630787037</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>45161</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>45161.36759259259</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30450,7 +30450,7 @@
         <v>45161.36928240741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30507,7 +30507,7 @@
         <v>44701</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30564,7 +30564,7 @@
         <v>45385</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30621,7 +30621,7 @@
         <v>46034.59744212963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30678,7 +30678,7 @@
         <v>44616.78555555556</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30735,7 +30735,7 @@
         <v>45139</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30792,7 +30792,7 @@
         <v>45235</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30849,7 +30849,7 @@
         <v>44952</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30906,7 +30906,7 @@
         <v>45301</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>45994.70809027777</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31020,7 +31020,7 @@
         <v>45708.46913194445</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         <v>45708.46960648148</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31134,7 +31134,7 @@
         <v>46036.44412037037</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31191,7 +31191,7 @@
         <v>45635.6921875</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44483</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>45699.45978009259</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31387,7 +31387,7 @@
         <v>45182</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31444,7 +31444,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>46029.58138888889</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>45775</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45315.66575231482</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>46043.6057175926</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31739,7 +31739,7 @@
         <v>46041.50924768519</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31796,7 +31796,7 @@
         <v>45624</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31853,7 +31853,7 @@
         <v>44294.33396990741</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31910,7 +31910,7 @@
         <v>45989</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31967,7 +31967,7 @@
         <v>45755.61784722222</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32024,7 +32024,7 @@
         <v>46043.54976851852</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32081,7 +32081,7 @@
         <v>46002.65667824074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>46002.30625</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32195,7 +32195,7 @@
         <v>46002.24141203704</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32252,7 +32252,7 @@
         <v>45145.64796296296</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>46002.6596875</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32366,7 +32366,7 @@
         <v>46003.47145833333</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32423,7 +32423,7 @@
         <v>45709.38978009259</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32500,7 +32500,7 @@
         <v>46002.30209490741</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>46045.48028935185</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>46002.60186342592</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>46002.55034722222</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>46003.66984953704</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32790,7 +32790,7 @@
         <v>46003.46927083333</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32847,7 +32847,7 @@
         <v>45770.65983796296</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>45315</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>46002.66668981482</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>45082.55885416667</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>45327.4684375</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
         <v>45775</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         <v>46007.44498842592</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44805.55975694444</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>46007.48135416667</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>46007.48309027778</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33422,7 +33422,7 @@
         <v>45698.67719907407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33479,7 +33479,7 @@
         <v>46008.49290509259</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>46008.50423611111</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33598,7 +33598,7 @@
         <v>46008.4852662037</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>46008.48805555556</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33712,7 +33712,7 @@
         <v>44868</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33769,7 +33769,7 @@
         <v>45671.62480324074</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         <v>46052.47105324074</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33883,7 +33883,7 @@
         <v>45202.26611111111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33940,7 +33940,7 @@
         <v>45007.45686342593</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33997,7 +33997,7 @@
         <v>44462</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34059,7 +34059,7 @@
         <v>45699.45336805555</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34121,7 +34121,7 @@
         <v>45699.45508101852</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         <v>45560.64243055556</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>46010.34168981481</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>45393</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>46052.42929398148</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34416,7 +34416,7 @@
         <v>46052.48008101852</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34473,7 +34473,7 @@
         <v>45588.49065972222</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34530,7 +34530,7 @@
         <v>45086.66693287037</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34587,7 +34587,7 @@
         <v>44323</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34644,7 +34644,7 @@
         <v>44960</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>45260</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>44558.51175925926</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>45219</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>45348.65997685185</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>46056.41675925926</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44882</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>44657</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>45897.55149305556</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>44599</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>45314.33872685185</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>45576.67208333333</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>45349.48241898148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35390,7 +35390,7 @@
         <v>45624</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44721.61611111111</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44953</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>45576.65969907407</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>45348.6147337963</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>45351.4491550926</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>44575</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>45188.66209490741</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>45308.33431712963</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>45120</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>45448.52539351852</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36022,7 +36022,7 @@
         <v>45267</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36079,7 +36079,7 @@
         <v>45360.40449074074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36136,7 +36136,7 @@
         <v>45360.41894675926</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>45078</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36250,7 +36250,7 @@
         <v>45539.66679398148</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         <v>44978.63537037037</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36364,7 +36364,7 @@
         <v>45686.34563657407</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>45761.68063657408</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>45400</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36535,7 +36535,7 @@
         <v>45726.6749537037</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36592,7 +36592,7 @@
         <v>45154.72465277778</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36654,7 +36654,7 @@
         <v>44446</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36711,7 +36711,7 @@
         <v>45770.67305555556</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36773,7 +36773,7 @@
         <v>45531.64358796296</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         <v>44970.57682870371</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36887,7 +36887,7 @@
         <v>44539.34103009259</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44517</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>44923.40631944445</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>45195</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37120,7 +37120,7 @@
         <v>44266</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37177,7 +37177,7 @@
         <v>44677</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37234,7 +37234,7 @@
         <v>44799.58758101852</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37291,7 +37291,7 @@
         <v>45360.4172337963</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37348,7 +37348,7 @@
         <v>45485.4796875</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37405,7 +37405,7 @@
         <v>45198.43638888889</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37462,7 +37462,7 @@
         <v>44964</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37519,7 +37519,7 @@
         <v>45741.61278935185</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37576,7 +37576,7 @@
         <v>44435</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>45709.39152777778</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45674.40616898148</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>45098.70277777778</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>45240.34232638889</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>45379</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>45226.62546296296</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44965.67148148148</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44851.67681712963</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>44236</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45699.45127314814</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45699.4584837963</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45713.39555555556</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>45483.86824074074</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>45595.59052083334</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38446,7 +38446,7 @@
         <v>44645</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38503,7 +38503,7 @@
         <v>45324.44579861111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38560,7 +38560,7 @@
         <v>45160.34069444444</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38617,7 +38617,7 @@
         <v>45307.44446759259</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44851</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>45531.64934027778</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38788,7 +38788,7 @@
         <v>44266</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38845,7 +38845,7 @@
         <v>45001.72512731481</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>44434</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>44982.5037962963</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>45123.60599537037</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>45398.69101851852</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>45775</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39192,7 +39192,7 @@
         <v>45607.50465277778</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39249,7 +39249,7 @@
         <v>45000.65476851852</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39306,7 +39306,7 @@
         <v>45082.34861111111</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39363,7 +39363,7 @@
         <v>44795</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         <v>45539.46399305556</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39477,7 +39477,7 @@
         <v>45048</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39534,7 +39534,7 @@
         <v>45476.34908564815</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39591,7 +39591,7 @@
         <v>45476.50915509259</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>45030</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
         <v>45517.61326388889</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39762,7 +39762,7 @@
         <v>44274</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39819,7 +39819,7 @@
         <v>45695.40054398148</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>45071</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39933,7 +39933,7 @@
         <v>45758.36324074074</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39990,7 +39990,7 @@
         <v>45470.88379629629</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40047,7 +40047,7 @@
         <v>44594</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40104,7 +40104,7 @@
         <v>45333.84959490741</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40161,7 +40161,7 @@
         <v>44956</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>45078</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40275,7 +40275,7 @@
         <v>45042.40232638889</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40332,7 +40332,7 @@
         <v>44811.38229166667</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40389,7 +40389,7 @@
         <v>45540.59917824074</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40446,7 +40446,7 @@
         <v>45260.81440972222</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40503,7 +40503,7 @@
         <v>45476.57782407408</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40560,7 +40560,7 @@
         <v>45229</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40622,7 +40622,7 @@
         <v>45341</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40679,7 +40679,7 @@
         <v>44375.6209837963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>44594</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40793,7 +40793,7 @@
         <v>45187</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40850,7 +40850,7 @@
         <v>44319.56430555556</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40907,7 +40907,7 @@
         <v>45439.8615625</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40964,7 +40964,7 @@
         <v>45175.62292824074</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41021,7 +41021,7 @@
         <v>45014.65841435185</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41078,7 +41078,7 @@
         <v>45082</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41135,7 +41135,7 @@
         <v>45399.46633101852</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41192,7 +41192,7 @@
         <v>45260.80365740741</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41249,7 +41249,7 @@
         <v>45294.43197916666</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>45307.48108796297</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>45614.39091435185</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41425,7 +41425,7 @@
         <v>44411</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41487,7 +41487,7 @@
         <v>44266.44692129629</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41544,7 +41544,7 @@
         <v>45709.39325231482</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44974.57886574074</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44379</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41715,7 +41715,7 @@
         <v>45737.5596875</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41772,7 +41772,7 @@
         <v>44868</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41829,7 +41829,7 @@
         <v>45719.49922453704</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         <v>44334.71728009259</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41963,7 +41963,7 @@
         <v>44658.49030092593</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42020,7 +42020,7 @@
         <v>45728.44758101852</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42077,7 +42077,7 @@
         <v>45442.6459837963</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42134,7 +42134,7 @@
         <v>45134</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42191,7 +42191,7 @@
         <v>45097.68376157407</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42248,7 +42248,7 @@
         <v>45475</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42305,7 +42305,7 @@
         <v>45301.47129629629</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42362,7 +42362,7 @@
         <v>44907</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42419,7 +42419,7 @@
         <v>45646.5981712963</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42476,7 +42476,7 @@
         <v>45071</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42533,7 +42533,7 @@
         <v>45777.48113425926</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42590,7 +42590,7 @@
         <v>45777.55960648148</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>45776.44575231482</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42704,7 +42704,7 @@
         <v>45776.48627314815</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42761,7 +42761,7 @@
         <v>45776.47818287037</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42818,7 +42818,7 @@
         <v>45785.34126157407</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42875,7 +42875,7 @@
         <v>45784.59287037037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42932,7 +42932,7 @@
         <v>45755.59559027778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42989,7 +42989,7 @@
         <v>45632.59153935185</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43046,7 +43046,7 @@
         <v>45789.67196759259</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43103,7 +43103,7 @@
         <v>45789.67461805556</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43160,7 +43160,7 @@
         <v>44988</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43217,7 +43217,7 @@
         <v>45361.75074074074</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43274,7 +43274,7 @@
         <v>45786.62056712963</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43331,7 +43331,7 @@
         <v>45755.59457175926</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43388,7 +43388,7 @@
         <v>45526</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43445,7 +43445,7 @@
         <v>45791</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43502,7 +43502,7 @@
         <v>45792.37238425926</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>45796.63584490741</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>45796.63424768519</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43673,7 +43673,7 @@
         <v>45796.63180555555</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>

--- a/Översikt KINDA.xlsx
+++ b/Översikt KINDA.xlsx
@@ -575,7 +575,7 @@
         <v>45923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>44826</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>45875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45965.57905092592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>45474</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45901.62403935185</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>45839.63804398148</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>44939</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>45880</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>45154.71289351852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>44958</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>45813.49403935186</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45901.62307870371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>45957.58760416666</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>45659.24403935186</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45726.67396990741</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44743.39091435185</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>45208</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>45693.56063657408</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45960.61328703703</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>45235</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>46037.49528935185</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45698.67474537037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>45875</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>45196</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>45301</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>45784.71938657408</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>44754</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44690</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>45517</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45196.57292824074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>45049</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>44342</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>45317</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44636</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45834.58208333333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44258</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>45719.48104166667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>45769.37408564815</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45841.6012962963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>44642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>45294</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45796.54400462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>45630.41168981481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>45861</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>45957.58908564815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>45875</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>45965.57670138889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45954.71739583334</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>45484</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>45490.56811342593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>45982.6</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>44608.4999537037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>44914.64768518518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>46002.5483912037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44949</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>45680.41096064815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>44452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44435</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44525</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>45484</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>44886</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>44419</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>44239</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>44805</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>44463</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>44418</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>44383.42700231481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44419</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44361.87231481481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>44817.99954861111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>44249</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>44382</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44852.60928240741</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>44776</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>44687</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>44309</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>44439</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         <v>44873</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7524,7 +7524,7 @@
         <v>44322</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44484</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44308</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44743.54180555556</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44411</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44284</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44483.77188657408</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44568.4189699074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44392</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44416</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44587</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44729</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44433</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44799.57587962963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44516.65936342593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44782</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44739.56701388889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44497</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44326</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44587</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>44244</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44362</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44465</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44337</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44337</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44467.60280092592</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44466.67244212963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44466.67746527777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44313.64008101852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44517.59907407407</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44454.66991898148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>44316</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>44739.55577546296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>44242</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>44734.56722222222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>44852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>44861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>44616.80707175926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>44445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>44484</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>44796.31537037037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>44466.67340277778</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>44466.67462962963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>44419</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44836.74738425926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         <v>44839.62386574074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>44364.44892361111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>44733.01248842593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>44874</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44714.53115740741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44451.97046296296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44483</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44379</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>44357</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10830,7 +10830,7 @@
         <v>44486</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         <v>44560</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         <v>44721.6180787037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44873.32138888889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>44697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>44805.56214120371</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44704.65763888889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44603.75377314815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44720</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44789.39914351852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>45400.7590162037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>45078.52990740741</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>45530.38082175926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>45445.39447916667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>45369.62628472222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44314</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>45174</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45351</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44998</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44826</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44897.60309027778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44755.45060185185</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>45162</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>45078</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>45145.63927083334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>45030</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>45030</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45030</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44455.68322916667</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44379</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44967</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>45684.55570601852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44918.3396875</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44918.34784722222</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44918</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>45355.45898148148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>45184.40974537037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44442.55604166666</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44284.57011574074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>45583.44207175926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>45188.64319444444</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44839.58741898148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>45266.61387731481</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44882</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45383</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45475.62894675926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>45020.61570601852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44801</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45141</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44375</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>45148.70342592592</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44930.64962962963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>45665.45471064815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>45351.40523148148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>45098</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>45315.66689814815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45684.57195601852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>45635.68952546296</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45187</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44454.66972222222</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45078.5274537037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45533.54908564815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45219</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>45581.57662037037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>45551.28467592593</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>45544.6372337963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>45201.40716435185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44851</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>44320.65725694445</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>45798.33460648148</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>45798.33824074074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>45187.61545138889</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>45567.47780092592</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44309</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>45799</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>45799.36881944445</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45149.57319444444</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>44918.32740740741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>44918.33414351852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>44918</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>45660.71824074074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>44918.34216435185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>45708.62505787037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>45456.61288194444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>45145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>45049</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>44958.38997685185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>45259.31565972222</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>45456.44684027778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>45807.66878472222</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>45832.6390625</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>45889.35399305556</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>45785.24804398148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>44567.77518518519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>45888.49229166667</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>45888</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>45888</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>45888</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>45811</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>45813.52677083333</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>45813.50763888889</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>45813.53402777778</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>45731.65049768519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>45817.55887731481</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>44935</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>45817.55668981482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>44732</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44677</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>45897.54273148148</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>45897.54880787037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>45897.54641203704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>45818</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>45897.55340277778</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>45818</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>45819.53686342593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>45819.55849537037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>45819.60376157407</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>45560.2703125</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>45898.30667824074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17993,7 +17993,7 @@
         <v>45819.4475</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>45901.32078703704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45358.44520833333</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>45819.4893287037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>45597.37384259259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>45821</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>45821</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>45821</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>45757.48918981481</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>45369.67408564815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>45904</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44483.65453703704</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>45062.57160879629</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>45360.41204861111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>45758.36638888889</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>45824</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>45905.33846064815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>45904</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>45904</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45601.35335648148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>45909.47525462963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>45821</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>45823.95393518519</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>45823.95060185185</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>45909.48123842593</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>45517.44506944445</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>45909.43236111111</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44799</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44799.57753472222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>45909.42916666667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>45909.45248842592</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>45821</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>45629</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>45912.47875</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>45468.49909722222</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44502</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>45245.66636574074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>45007</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>45758.36788194445</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>45746.48921296297</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>45831.46635416667</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>45831.47709490741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>45917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>45020.71773148148</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>45334.82431712963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>45267.6274537037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>45321.70762731481</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>45923.3625</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44981</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>45167</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>45383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>45832.56275462963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44949.73369212963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>45229</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44627</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45832.55696759259</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44725.33693287037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>45671.62322916667</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>45929.43230324074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>45929.41962962963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>45929.42545138889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>45834.56487268519</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>45929.43957175926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45929</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>45929.39244212963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>45187</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45461.42116898148</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45929.46361111111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45352</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45821.4841087963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45835.36383101852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45442.48741898148</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45929.45878472222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45835.35780092593</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45302.51340277777</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44960.64481481481</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45838.72785879629</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45769.37105324074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>45601.35923611111</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>45839.50966435186</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>45839.51413194444</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>45933.46984953704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
         <v>45932.59002314815</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>45932.59138888889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>45932.55936342593</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>45245.67082175926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45933.47111111111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>45840.85745370371</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>45841.4630787037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23116,7 +23116,7 @@
         <v>44799.59876157407</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>45841.50858796296</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>45935</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>45107.42807870371</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45145</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44319</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44860</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45676</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45676.49690972222</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45841.49861111111</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45845</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45008</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45624.33611111111</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45845.52050925926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45184.43140046296</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23976,7 +23976,7 @@
         <v>45940.46385416666</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24033,7 +24033,7 @@
         <v>45943.61493055556</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24090,7 +24090,7 @@
         <v>44882</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24147,7 +24147,7 @@
         <v>45390.53634259259</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45250</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45385.56655092593</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45671.62127314815</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45842.35203703704</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45733.66236111111</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45331</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>45825.6502662037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>45945.63074074074</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>45527.33670138889</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>45527.3469212963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>45567.48658564815</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45590.59793981481</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45929</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45946.3800462963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45461.41216435185</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44728.60424768519</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45035</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44623.61737268518</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45863.43395833333</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45863.51805555556</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45863.44907407407</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45863</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>44484</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45784.70443287037</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>45786</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>45866</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>45866</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>45957.4008912037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45562.3316087963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45456</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>45334</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>44480.3503587963</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>45874</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>44991.5281712963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         <v>44617.6878125</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>45875</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>45361.37284722222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>44650.56546296296</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>45593.66861111111</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>45959.58710648148</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>45267.61618055555</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>45960.86200231482</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>45965.45344907408</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44977</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>45880</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>45111</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>45882.57047453704</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45062.57262731482</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26960,7 +26960,7 @@
         <v>45796.54888888889</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>45966.87212962963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         <v>45967.60479166666</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45971.60863425926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>45096</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>45882.58010416666</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27312,7 +27312,7 @@
         <v>45971.62304398148</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>45882.56710648148</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27431,7 +27431,7 @@
         <v>45971.60042824074</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>44272</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>45118.57342592593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27607,7 +27607,7 @@
         <v>45883.3749537037</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27664,7 +27664,7 @@
         <v>45973</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27721,7 +27721,7 @@
         <v>45572.6625</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27778,7 +27778,7 @@
         <v>45484</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27835,7 +27835,7 @@
         <v>45882.56501157407</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27892,7 +27892,7 @@
         <v>45882.55935185185</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27949,7 +27949,7 @@
         <v>45882.56136574074</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>45973</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>45973</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>45883.38797453704</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28177,7 +28177,7 @@
         <v>45883.39684027778</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>44918.33840277778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45245.47634259259</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45972</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28405,7 +28405,7 @@
         <v>45699.45700231481</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>44952</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45315.66914351852</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45977.81061342593</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45978</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>45631.62002314815</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45541.34607638889</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45688.43620370371</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28871,7 +28871,7 @@
         <v>45693.39354166666</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>45160.3425</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>45593.32488425926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         <v>44739.5850462963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>45078.51806712963</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>44959.3233912037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45118.58756944445</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>46029.57982638889</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>44952</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>44608.48450231482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29451,7 +29451,7 @@
         <v>45988.45670138889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29513,7 +29513,7 @@
         <v>45988.36878472222</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>45988.46053240741</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         <v>45684.49472222223</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         <v>45988.43372685185</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29756,7 +29756,7 @@
         <v>45988.43559027778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44952.00760416667</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>45988.45870370371</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29937,7 +29937,7 @@
         <v>44483.65719907408</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29994,7 +29994,7 @@
         <v>45613.8235300926</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30051,7 +30051,7 @@
         <v>46035.35317129629</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>46034.30648148148</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30165,7 +30165,7 @@
         <v>44319</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30222,7 +30222,7 @@
         <v>45176.39657407408</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30279,7 +30279,7 @@
         <v>45118.5630787037</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>45161</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>45161.36759259259</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30450,7 +30450,7 @@
         <v>45161.36928240741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30507,7 +30507,7 @@
         <v>44701</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30564,7 +30564,7 @@
         <v>45385</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30621,7 +30621,7 @@
         <v>46034.59744212963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30678,7 +30678,7 @@
         <v>44616.78555555556</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30735,7 +30735,7 @@
         <v>45139</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30792,7 +30792,7 @@
         <v>45235</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30849,7 +30849,7 @@
         <v>44952</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30906,7 +30906,7 @@
         <v>45301</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>45994.70809027777</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31020,7 +31020,7 @@
         <v>45708.46913194445</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         <v>45708.46960648148</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31134,7 +31134,7 @@
         <v>46036.44412037037</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31191,7 +31191,7 @@
         <v>45635.6921875</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44483</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>45699.45978009259</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31387,7 +31387,7 @@
         <v>45182</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31444,7 +31444,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>46029.58138888889</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>45775</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45315.66575231482</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>46043.6057175926</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31739,7 +31739,7 @@
         <v>46041.50924768519</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31796,7 +31796,7 @@
         <v>45624</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31853,7 +31853,7 @@
         <v>44294.33396990741</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31910,7 +31910,7 @@
         <v>45989</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31967,7 +31967,7 @@
         <v>45755.61784722222</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32024,7 +32024,7 @@
         <v>46043.54976851852</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32081,7 +32081,7 @@
         <v>46002.65667824074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>46002.30625</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32195,7 +32195,7 @@
         <v>46002.24141203704</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32252,7 +32252,7 @@
         <v>45145.64796296296</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>46002.6596875</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32366,7 +32366,7 @@
         <v>46003.47145833333</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32423,7 +32423,7 @@
         <v>45709.38978009259</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32500,7 +32500,7 @@
         <v>46002.30209490741</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>46045.48028935185</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>46002.60186342592</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>46002.55034722222</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>46003.66984953704</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32790,7 +32790,7 @@
         <v>46003.46927083333</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32847,7 +32847,7 @@
         <v>45770.65983796296</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>45315</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>46002.66668981482</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>45082.55885416667</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>45327.4684375</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
         <v>45775</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         <v>46007.44498842592</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44805.55975694444</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>46007.48135416667</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>46007.48309027778</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33422,7 +33422,7 @@
         <v>45698.67719907407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33479,7 +33479,7 @@
         <v>46008.49290509259</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>46008.50423611111</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33598,7 +33598,7 @@
         <v>46008.4852662037</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>46008.48805555556</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33712,7 +33712,7 @@
         <v>44868</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33769,7 +33769,7 @@
         <v>45671.62480324074</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         <v>46052.47105324074</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33883,7 +33883,7 @@
         <v>45202.26611111111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33940,7 +33940,7 @@
         <v>45007.45686342593</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33997,7 +33997,7 @@
         <v>44462</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34059,7 +34059,7 @@
         <v>45699.45336805555</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34121,7 +34121,7 @@
         <v>45699.45508101852</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         <v>45560.64243055556</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>46010.34168981481</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>45393</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>46052.42929398148</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34416,7 +34416,7 @@
         <v>46052.48008101852</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34473,7 +34473,7 @@
         <v>45588.49065972222</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34530,7 +34530,7 @@
         <v>45086.66693287037</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34587,7 +34587,7 @@
         <v>44323</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34644,7 +34644,7 @@
         <v>44960</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>45260</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>44558.51175925926</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>45219</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>45348.65997685185</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>46056.41675925926</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44882</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>44657</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>45897.55149305556</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>44599</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>45314.33872685185</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>45576.67208333333</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>45349.48241898148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35390,7 +35390,7 @@
         <v>45624</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44721.61611111111</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44953</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>45576.65969907407</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>45348.6147337963</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>45351.4491550926</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>44575</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>45188.66209490741</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>45308.33431712963</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>45120</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>45448.52539351852</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36022,7 +36022,7 @@
         <v>45267</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36079,7 +36079,7 @@
         <v>45360.40449074074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36136,7 +36136,7 @@
         <v>45360.41894675926</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>45078</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36250,7 +36250,7 @@
         <v>45539.66679398148</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         <v>44978.63537037037</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36364,7 +36364,7 @@
         <v>45686.34563657407</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>45761.68063657408</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>45400</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36535,7 +36535,7 @@
         <v>45726.6749537037</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36592,7 +36592,7 @@
         <v>45154.72465277778</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36654,7 +36654,7 @@
         <v>44446</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36711,7 +36711,7 @@
         <v>45770.67305555556</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36773,7 +36773,7 @@
         <v>45531.64358796296</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         <v>44970.57682870371</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36887,7 +36887,7 @@
         <v>44539.34103009259</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44517</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>44923.40631944445</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>45195</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37120,7 +37120,7 @@
         <v>44266</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37177,7 +37177,7 @@
         <v>44677</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37234,7 +37234,7 @@
         <v>44799.58758101852</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37291,7 +37291,7 @@
         <v>45360.4172337963</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37348,7 +37348,7 @@
         <v>45485.4796875</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37405,7 +37405,7 @@
         <v>45198.43638888889</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37462,7 +37462,7 @@
         <v>44964</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37519,7 +37519,7 @@
         <v>45741.61278935185</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37576,7 +37576,7 @@
         <v>44435</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>45709.39152777778</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45674.40616898148</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>45098.70277777778</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>45240.34232638889</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>45379</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>45226.62546296296</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44965.67148148148</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44851.67681712963</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>44236</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45699.45127314814</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45699.4584837963</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45713.39555555556</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>45483.86824074074</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>45595.59052083334</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38446,7 +38446,7 @@
         <v>44645</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38503,7 +38503,7 @@
         <v>45324.44579861111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38560,7 +38560,7 @@
         <v>45160.34069444444</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38617,7 +38617,7 @@
         <v>45307.44446759259</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44851</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>45531.64934027778</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38788,7 +38788,7 @@
         <v>44266</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38845,7 +38845,7 @@
         <v>45001.72512731481</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>44434</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>44982.5037962963</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>45123.60599537037</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>45398.69101851852</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>45775</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39192,7 +39192,7 @@
         <v>45607.50465277778</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39249,7 +39249,7 @@
         <v>45000.65476851852</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39306,7 +39306,7 @@
         <v>45082.34861111111</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39363,7 +39363,7 @@
         <v>44795</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         <v>45539.46399305556</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39477,7 +39477,7 @@
         <v>45048</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39534,7 +39534,7 @@
         <v>45476.34908564815</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39591,7 +39591,7 @@
         <v>45476.50915509259</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>45030</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
         <v>45517.61326388889</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39762,7 +39762,7 @@
         <v>44274</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39819,7 +39819,7 @@
         <v>45695.40054398148</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>45071</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39933,7 +39933,7 @@
         <v>45758.36324074074</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39990,7 +39990,7 @@
         <v>45470.88379629629</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40047,7 +40047,7 @@
         <v>44594</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40104,7 +40104,7 @@
         <v>45333.84959490741</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40161,7 +40161,7 @@
         <v>44956</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>45078</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40275,7 +40275,7 @@
         <v>45042.40232638889</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40332,7 +40332,7 @@
         <v>44811.38229166667</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40389,7 +40389,7 @@
         <v>45540.59917824074</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40446,7 +40446,7 @@
         <v>45260.81440972222</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40503,7 +40503,7 @@
         <v>45476.57782407408</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40560,7 +40560,7 @@
         <v>45229</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40622,7 +40622,7 @@
         <v>45341</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40679,7 +40679,7 @@
         <v>44375.6209837963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>44594</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40793,7 +40793,7 @@
         <v>45187</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40850,7 +40850,7 @@
         <v>44319.56430555556</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40907,7 +40907,7 @@
         <v>45439.8615625</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40964,7 +40964,7 @@
         <v>45175.62292824074</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41021,7 +41021,7 @@
         <v>45014.65841435185</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41078,7 +41078,7 @@
         <v>45082</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41135,7 +41135,7 @@
         <v>45399.46633101852</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41192,7 +41192,7 @@
         <v>45260.80365740741</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41249,7 +41249,7 @@
         <v>45294.43197916666</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>45307.48108796297</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>45614.39091435185</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41425,7 +41425,7 @@
         <v>44411</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41487,7 +41487,7 @@
         <v>44266.44692129629</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41544,7 +41544,7 @@
         <v>45709.39325231482</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44974.57886574074</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44379</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41715,7 +41715,7 @@
         <v>45737.5596875</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41772,7 +41772,7 @@
         <v>44868</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41829,7 +41829,7 @@
         <v>45719.49922453704</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         <v>44334.71728009259</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41963,7 +41963,7 @@
         <v>44658.49030092593</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42020,7 +42020,7 @@
         <v>45728.44758101852</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42077,7 +42077,7 @@
         <v>45442.6459837963</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42134,7 +42134,7 @@
         <v>45134</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42191,7 +42191,7 @@
         <v>45097.68376157407</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42248,7 +42248,7 @@
         <v>45475</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42305,7 +42305,7 @@
         <v>45301.47129629629</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42362,7 +42362,7 @@
         <v>44907</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42419,7 +42419,7 @@
         <v>45646.5981712963</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42476,7 +42476,7 @@
         <v>45071</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42533,7 +42533,7 @@
         <v>45777.48113425926</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42590,7 +42590,7 @@
         <v>45777.55960648148</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>45776.44575231482</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42704,7 +42704,7 @@
         <v>45776.48627314815</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42761,7 +42761,7 @@
         <v>45776.47818287037</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42818,7 +42818,7 @@
         <v>45785.34126157407</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42875,7 +42875,7 @@
         <v>45784.59287037037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42932,7 +42932,7 @@
         <v>45755.59559027778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42989,7 +42989,7 @@
         <v>45632.59153935185</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43046,7 +43046,7 @@
         <v>45789.67196759259</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43103,7 +43103,7 @@
         <v>45789.67461805556</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43160,7 +43160,7 @@
         <v>44988</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43217,7 +43217,7 @@
         <v>45361.75074074074</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43274,7 +43274,7 @@
         <v>45786.62056712963</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43331,7 +43331,7 @@
         <v>45755.59457175926</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43388,7 +43388,7 @@
         <v>45526</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43445,7 +43445,7 @@
         <v>45791</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43502,7 +43502,7 @@
         <v>45792.37238425926</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>45796.63584490741</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>45796.63424768519</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43673,7 +43673,7 @@
         <v>45796.63180555555</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
